--- a/Reports/ePost.xlsx
+++ b/Reports/ePost.xlsx
@@ -450,6 +450,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">

--- a/Reports/ePost.xlsx
+++ b/Reports/ePost.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,26 +507,26 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Dachepalle SO</t>
+          <t>Atchampet S.O</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Karempudi S.O</t>
+          <t>Brahmanapalle S.O</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -536,26 +536,26 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Machavaram S.O</t>
+          <t>Chilakaluripet SO</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -564,17 +564,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Macherla SO</t>
+          <t>Dachepalle SO</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Nekarikallu S.O</t>
+          <t>Ganapavaram S.O</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -602,7 +602,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Phirangipuram S.O</t>
+          <t>Gurazala SO</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
@@ -612,16 +612,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Piduguralla SO</t>
+          <t>Kavuru S.O</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
@@ -631,35 +631,35 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Satuluru S.O</t>
+          <t>Krosuru S.O</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Savalyapuram S.O</t>
+          <t>Machavaram S.O</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -669,48 +669,276 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Vellatur S.O</t>
+          <t>Macherla SO</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
+          <t>Narasaraopet HO</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Nekarikallu S.O</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Pedakancherla S.O</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Pedakurapadu SO</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Piduguralla SO</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Ravipadu S.O</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Rompicherla S.O</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Sattenapalle HO</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Satuluru S.O</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Savalyapuram S.O</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Veldurthy S.O</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Vellatur S.O</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>30</v>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
